--- a/SISARMAMENTO-HEFESTOS/ARTEFATOS/requisitos_funcionais.xlsx
+++ b/SISARMAMENTO-HEFESTOS/ARTEFATOS/requisitos_funcionais.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOCUMENTAÇÃO\draw.io\SISARMAMENTO-HEFESTOS\ARTEFATOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD6B71-1A47-4A0C-92AB-F64B1BA0A81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,15 +27,666 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="195">
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Foi Atendido?</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Necessidade de um novo Sistema pois o atual não atende as demandas atuais para o sistema de armamento;</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>O sistema deverá não somente controlar armas, como o antigo sisarmamento, mas outros itens e material bélico, como granadas, colete, lançadores e munição;</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Requisito duplicado sob o nº R26. Tornar sem efeito o presente requisito e passa a ser controlado pelo de nº 26</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Diminuir o excesso de informações no cadastro do armamento;</t>
+  </si>
+  <si>
+    <t>o REQUISITO FOI INVALIDADE PELA CRIAÇÃO DE NOVO REQUISITO Nº R21, que permitiu a manutenção dos campos do sistema anterior para o atual.</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>vincular o número de tombamento ao armamento ou equipamento, o atual sistema não existe o vínculo;</t>
+  </si>
+  <si>
+    <t>SIM </t>
+  </si>
+  <si>
+    <t> O campo nº de Tombo foi criado</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Controle de produtos que possuem itens composto, como é o caso de armamento que junto ao produto outros itens são agregados, como carregadores, escova. 1. o sistema deverá permitir o desmembramento desses itens e eles passarem a ser produtos individuais no estoque no sistema;</t>
+  </si>
+  <si>
+    <t> SIM</t>
+  </si>
+  <si>
+    <t> O Cadastro de produtos oriundo de kits pode ser realizados através da categoria “Acessorios”. O usuario deve cadastrar o produto do tipo manualmente.</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Os itens oriundos de doação precisam constar o Órgão de Origem bem como o anexo do termo de doação</t>
+  </si>
+  <si>
+    <t>Requisito duplicado sob nº 37. Tornar sem efeito o presente requisito e gerenciar o R37</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>A possibilidade de registro de ocorrências para efetuar por exemplo, baixas de estoque, bem como registrar situações a adversas, como furto, defeito, apreensão etc. 1. Trata-se tambem de OCORRÊNCIAS o caso baixa de material que envolve curso/treinamento, o responsável pela retirada do material, deverá registrar ocorrência em que conste a quantidade de itens utilizados na instrução e treinamento.</t>
+  </si>
+  <si>
+    <t>Aguardando</t>
+  </si>
+  <si>
+    <t>Apesar de existir um requisito sob o nº R29 analógo a este, manteremos gerenciando os dois devido que se complementam</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Ao conceder um Acautelamento o operador deverá ter visualização do cadastro e foto do servidor a receber a cautela Individual.  A mesma visualização dever ser permitida para cautela entre unidades, onde o operador visualizará o cadastro e foto do responsável pela unidade.</t>
+  </si>
+  <si>
+    <t>Requisito duplicado sob nº R39, tornar sem efeito o presente requisito e referenciável o sob o nº 39</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>Toda e qualquer cautela só poderá ser emitida para impressão após autorização do diretor do GAP e/ou outro usuário com perfil de AUTORIZAÇÃO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requisito de Cautela </t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>As cautelas geradas pelo sistema podem ou não conter uma data de renovação. Quando houver data de renovação, o sistema deverá controlar as cautelas vencidas, com possibilidade de bloquear a marcação do abono, bem como do sistema informar ao responsável via e-mail ou whatsapp a necessidade da renovação da cautela.</t>
+  </si>
+  <si>
+    <t> Requisito de cautela</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>O servidor deverá realizar o Termo de Aceite de Cautela eletronicamente, assinando digitalmente no abono ou no gov.br.</t>
+  </si>
+  <si>
+    <t> Requisito de Cautela</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Todo cadastro de Licença Psicológica cadastrado no SISRH deverá ser notificado no sistema para as providências junto ao GAP</t>
+  </si>
+  <si>
+    <t> Aguardando</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>No ato da devolução, a depende do caso, deverá haver o registro de ocorrência para informar os itens que foram não foram devolvidos</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>É imprescindível que na gestão de estoque a depender da unidade de medida do item, o sistema efetue o controle de estoque efetivo, podendo quantificar com precisão a quantidade de itens alocados no estoque atualmente</t>
+  </si>
+  <si>
+    <t> Requisito de Estoque</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>Deve existir o histórico de acautelamento dos itens, de maneira que a qualquer momento o administrador do sistema possa conferir o histórico</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Requisito duplicado sob o nº R22. Tornar sem efeito esse requisito e passar a ser controlado pelo de nº R22</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>O sistema deverá possibilitar o cadastro de vários locais para estoque em uma única unidade e vinculação de itens a esse estoque, com a geração de relatório de itens constantes atualmente</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>O sistema deverá conter 03 (três) perfis: coordenador, supervisor e auxiliar, sendo: 1. Coordenador - Autoriza as cautelas validando o processo; 2. Supervisor - Tem como responsabilidade supervisionar e emitir relatórios, fiscalizar Acautelamento nas Unidades e/ou durante troca das gestões; 3. Auxiliar - Realiza os cadastros básicos no sistema, faz extração de relatórios e inicia emissão das cautelas.</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>O sistema deverá contar com o módulo para controle e gestão de armamentos particulares.</t>
+  </si>
+  <si>
+    <t>Requisito duplicado sob o nº 48. Tornar sem efeito o presente requisito e gerenciável o R48.</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>O PP Costa solicita também a possibilidade de cautela para serviço, onde essa cautela pode conter itens individuais ou um kit composto por dois ou mais itens.</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>Os campos já existentes no sistema de armamento anterior podem ser mantidos, mas que fosse removido a obrigatoriedade dos seguintes campos: “CRAF emitido pelo SINARM?”, “Data da Nota Fiscal”, “Comprimento do Cano”.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Falta documentação UC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, porém optou-se manter os campos por ser necessários, com exceção “CRAF emitido pelo SINARM?” que foi mantido dois campos para registrar CRAF se a arma tem e data da emissão.</t>
+    </r>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>Foi enfatizada a necessidade de se manter o histórico de todos os itens de material bélico.</t>
+  </si>
+  <si>
+    <t> O histórico será mostrado através das telas de listagem dos Acautelamentos e os Relatórios.</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>Foi solicitado que no cadastro da arma seja adicionado um novo campo intitulado de “Nº de Tombo”.</t>
+  </si>
+  <si>
+    <t>Requisito duplicado, tornar sem efeito este requisito e manter o requisito de nº R4</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>Antes de iniciar o cadastro da arma ou material bélico o sistema deve permitir que o usuário pesquise pelos campos “patrimônio” ou “nº de série da arma” para verificar a existência do produto. 1. Se for encontrado algum cadastro de patrimônio ou número de série da arma, o usuário deve ser capaz de continuar com o cadastro da arma. Caso nenhuma dessas informações seja encontrada, o sistema deve direcionar para uma nova tela de cadastro da arma.</t>
+  </si>
+  <si>
+    <t> NÃO</t>
+  </si>
+  <si>
+    <t> Não foi atendido, pois um foi gerado um banco novo, onde todos os produtos são criados desde o início. Isso foi um requisito solicitado pelo stakeholders.</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>No caso de um novo cadastro de arma, é importante que o Sisarmamento se comunique com o Sispatrimonial. Conforme o requisito anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Não </t>
+  </si>
+  <si>
+    <t> Por ser de banco diferentes não haverá comunicação entre os dois bancos</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir o cadastro de diversos itens de material bélico, tais como granadas, coletes, escudos, lançadores, algemas, munição, perneira etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIM </t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>Para o cadastro de munição, é necessário conter os seguintes campos para preenchimento: calibre, tipo de uso (treinamento/uso), e modelo. 1. É importante que o cadastro de munição contenha o status da munição (treinamento/uso/inutilizado).</t>
+  </si>
+  <si>
+    <t>Não é lógico numa arquitetura saudável e de boas práticas criar um produto contendo, a exemplo - 500 munições inutilizadas e criar um produto com 5000 munições em uso. Para um banco não é coerente para manutenção dos registros. Caso exista no estoque munições inutilizadas ou outro tipo de status, deve o usuário fazer uma ocorrência e informar a quantidade de munições com o status inutilizado que após salvar a ocorrência o estoque será debitado. Na ocorrência será registrado o quantitativo de munições inutilizados;</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>Quando se tratar de material bélico, cujos itens possuam tombamento, o sistema deve permitir informar nº de tombo. Exemplo de itens que possuem tombo: capacete, escudo, colete, algema.</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir o cadastro de ocorrências para efetuar baixas de cautela em situações adversas, tais como furto, defeitos, apreensão de armamento, apreensão de itens de material bélico.</t>
+  </si>
+  <si>
+    <t>Requisito de Ocorrência.</t>
+  </si>
+  <si>
+    <t>Apesar de existir um requisito sob o nº R7 análogo a este manteremos gerenciados os dois devido que se complementam</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>Na ocorrência, deve constar o nome do servidor, sua lotação, a data da ocorrência, o item da cautela, estado do item e uma descrição detalhada do ocorrido e o tipo de Ocorrência.</t>
+  </si>
+  <si>
+    <t> Requisito de Ocorrência</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>O sistema informará se o armamento ou material bélico está avariado</t>
+  </si>
+  <si>
+    <t> Existem dois campos que tratam da mesma situação Condição de Uso: com defeito e o campo com defeito: Sim ou Não. Faremos alteração para manter o campo com defeito e retiraremos do campo Condição de Uso: com defeito.</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>Quando material bélico estiver avariado, o sistema deve permitir informar o tipo de defeito. Foram sugeridos os seguintes campos para integrar o sistema: “descrição” e “motivo da avaria”.</t>
+  </si>
+  <si>
+    <t> Campo Condição de Uso</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>Um material bélico classificado como "avariado" não poderá ser acautelado.</t>
+  </si>
+  <si>
+    <t> Quando o campo defeito estiver como SIM, o produto não poderá ser acautelado.</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>Quando for informada a avaria de uma arma, a cautela permanece registrada no nome do servidor responsável, enquanto acontece a verificação da avaria.</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>O sistema deve ter a funcionalidade de emitir um recibo de que o servidor realizou a entrega do armamento com avaria.</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir o cadastro separado dos itens de materiais que estão contidos em kits. 1. É importante informar que o kit foi desmontado e que os itens foram adicionados ao estoque.</t>
+  </si>
+  <si>
+    <t>Existe um requisito duplicado sob o nº R5. Assim tornar sem efeito o presente requisito e gerenciar o requisito nº R5</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>No caso de doação, deve ser fornecida a opção de informar o Órgão de origem. Se o nome do Órgão não estiver disponível no sistema, o usuário deve ter a capacidade de cadastrar o novo Órgão.</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>Durante a baixa de cautela, a responsabilidade pela cautela deve ser retirada do servidor.</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>Durante o processo de acautelamento do bem, o sistema deve exibir a foto e os dados do servidor.</t>
+  </si>
+  <si>
+    <t> São mostradas as fotos do operador, policial penal e do autorizador</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>Existem três tipos de cautelas: Individual, Intendência e Emergencial. Para todos esses tipos de cautelas, o sistema deve exibir a foto e os dados do servidor durante a geração do Termo de Cautela.</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>A cautela pode ser feita por uma pessoa com perfil diferente de direção, porém somente o perfil da direção terá permissão para gerar o Termo de Cautela.</t>
+  </si>
+  <si>
+    <t> O operador pode fazer a impressão do termo de Cautela, porém somente quando as Autoridades validarem. Foi gerado um novo requisito sob o nº R41.1</t>
+  </si>
+  <si>
+    <t>R41.1</t>
+  </si>
+  <si>
+    <t>O operador pode fazer a impressão do termo de Cautela para o policial assinar, porém somente quando as Autoridades validarem.</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>Quando um usuário com perfil de direção acessar o sistema, deve ser apresentado um campo de “Pendências”, onde serão exibidas todas as cautelas pendentes de emissão do Termo de Cautela.</t>
+  </si>
+  <si>
+    <t> Quando o usuário com perfil de Autoridade (Coordenador, Supervisor do NUARM, Diretor do Gap) acessarem no seu perfil aparecerá um modulo de pendentes de Autorização, onde serão exibidos todas as Cautelas pendentes de Autorização. Será Gerado novo Requisito sob o nº R42.1 .</t>
+  </si>
+  <si>
+    <t>R42.1</t>
+  </si>
+  <si>
+    <t>Quando o usuário com perfil de Autoridade (Coordenador, Supervisor do NUARM, Diretor do Gap) acessarem no seu perfil aparecerá um modulo de pendentes de Autorização, onde serão exibidos todas as Cautelas pendentes de Autorização.</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir realizar a renovação de cautela, atendendo alguns critérios tais como: apresentação da arma, condições da arma, possui licença psicológica, responde CGD, CAAT.</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>O Termo de Renovação de Cautela poderá ser assinado eletronicamente pelo SIAPP.</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>O sistema deve notificar o responsável quando a cautela estiver vencida e, ao mesmo tempo, bloqueá-lo no SIAPP. Esta notificação poderá ser feita por e-mail ou WhatsApp.</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>Sempre que uma licença psicológica for cadastrada para um servidor no SISRH, o GAP deve ser notificado.</t>
+  </si>
+  <si>
+    <t>Requisito duplicado sob o nº R12, torna sem efeito o presente requisito e gerenciável o R12</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>Quando uma licença psicológica for cadastrada, o usuário poderá efetuar a baixa na cautela. Este material bélico não poderá ser acautelado por ninguém. O material será recolhido, mas deve permanecer acautelado para o servidor que se encontra de licença psicológica. Após o término da licença, o material bélico será devolvido ao servidor.</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>Sistema deve controlar os armamentos particulares que estão temporariamente sob a guarda do GAP até que seus proprietários regularizem sua documentação junto à Polícia Federal. Esse item não será contabilizado no estoque do GAP. Deve-se gerar um Termo de Entrega para o proprietário.</t>
+  </si>
+  <si>
+    <t>No cadastro de cautela, devem constar os seguintes itens:1. Nome do Servidor, 2. Matrícula, 3. Lotação, 4. Número do Processo, 5. Tipo de Cautela, 6. Descrição, 7. Número da Cautela, 8. Estado da Arma, 9. Nome da Arma, 10. Número de Série, 11. Patrimonio, 12. Modelo, 14. Qtde. munição, 15. Qtde. Carregadores, 16. Observação</t>
+  </si>
+  <si>
+    <t> Requisito de Cautela.</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>Incluir um campo de "Observação" no cadastro de produto.</t>
+  </si>
+  <si>
+    <t>Atendido.</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>Implementar um filtro que exiba todas as armas sem número de tombamento. Esta informação é preenchida na tela de cadastro do produto.</t>
+  </si>
+  <si>
+    <t> Todos as Armas serão novamente cadastradas,  por isso não há necessidade do filtro.</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>O sistema deverá resolver o problema de armas "mutantes", que podem ser montadas com peças de diferentes números de série (exemplo: ferrolho, armação e cano) ou constituídas por uma única peça.</t>
+  </si>
+  <si>
+    <t> Requisito Produto</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>O Ponto Inicial de todas as Armas e o Local de Estoque - NUARM. O NUARM trata-se do local de estoque geral de armas</t>
+  </si>
+  <si>
+    <t> Requisito de Produto.</t>
+  </si>
+  <si>
+    <t>Ao cadastrar um produto, uma movimentação de Entrada e histórico de estoque é realizada;</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>Ao cadastrar o produto, este deve ser automaticamente direcionado para o NUARM.</t>
+  </si>
+  <si>
+    <t> Requisito de Produto</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>Após o direcionamento automático para o NUARM, as próximas movimentações deverão ser realizadas com intervenção do usuário.</t>
+  </si>
+  <si>
+    <t> Requisito de Movimentação</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>As movimentações de armas entre o GAP e outras unidades devem ser centralizadas no NUARM, tanto no envio quanto no retorno.</t>
+  </si>
+  <si>
+    <t>  Requisito de Movimentação</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>Os tipos de movimentação que partem do NUARM incluem: Individual, Intendência e Urgência.</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>No Paiol do GAP, O sistema deverá gerar um recibo a cada movimentação de arma ou material bélico</t>
+  </si>
+  <si>
+    <t> aguardando</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>No NUARM, é gerada uma "cautela temporária", que consiste em um recibo identificado com o nome da pessoa. Para o sistema, "cautela temporária" e "recibo" representam o mesmo documento.</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>Possibilidade de a unidade prisional gerar cautela temporária/recibo para o empréstimo de armamento ao servidor.</t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>A cautela temporária não deve ser vinculada a um limite de horas</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>Verificar a viabilidade de implementar registro biométrico para a cautela temporária, permitindo que a pessoa registre a cautela por meio de biometria e tenha a possibilidade de emitir um comprovante a qualquer momento.</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>A cautela Individual, Intendência, Urgência são deferidas pela COEAP</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>O supervisor do NUARM e o Diretor do GAP tem como função “Autorizar” a cautela deferida (Autorizado) pela COEAP, para que a cautela seja assinada pelo policial, entregue e emitido pelo operador, finalizando o processo de Cautela.</t>
+  </si>
+  <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>Disponibilizar a opção de designar um "Responsável pela Cautela", para substituição em casos de ausência do atual responsável (férias etc.).</t>
+  </si>
+  <si>
+    <t>Requisito de Cautela</t>
+  </si>
+  <si>
+    <t>Pode criar um responsável pelo Local de Estoque. Não haverá mais de um responsável por Local de Estoque. Em caso de ausência do Administrador do Local de Estoque ele será temporariamente substituído no sistema e após o retorno o substituto será alterado pelo Atual.</t>
+  </si>
+  <si>
+    <t>De forma Emergencial, a autorização para Cautela Arma pode ser validada pelo Secretário Mauro, Coordenador da COEAP ou do diretor do GAP. Após essa validação, a solicitação contendo os itens da cautela devem ser encaminhados ao GAP para emissão da CAUTELA, atendendo dessa forma a casos excepcionais e de urgência solicitados pela Gestão.</t>
+  </si>
+  <si>
+    <t>Requisito de Cautela.</t>
+  </si>
+  <si>
+    <t>Autorização de Cautela pode atualmente tem como Autoridades validadoras, Coordenador da CEAP, Diretor do Gap e Supervisor do GAP, podendo ser extensível para o Secretario, dependendo da sua autorização.</t>
+  </si>
+  <si>
+    <t>Requisito de Local de Estoque</t>
+  </si>
+  <si>
+    <t>Requisito de Perfil</t>
+  </si>
+  <si>
+    <t>Requisito de Categoria e Modelo.
+Requisito atendido</t>
+  </si>
+  <si>
+    <t>A Cautela deverá ter status que definirá em que momento da cautela se encontra, da emissão da cautela, a entrega dos itens, devolução dos itens da cautela ou pendencias.
+Os status possíveis: Emitido, Pendente, Autorizado, Entregue, Devolvido.</t>
+  </si>
+  <si>
+    <t>Requisito de Cautela.
+Emitido-operador faz o cadastro, Pendente-apenas duas autoridades validaram a cautela, Autorizado- as três autoridades validaram a cautela, entregue-os itens da cautela foram entregues, Devolvido-itens da cautela devolvido, Suspenso-Cautela foi suspenso. Os itens continuam acautelados ao policial, um dos casos que será usado esse status é quando o policial entra de licença psicológico. Nesse status os itens estão reservados enquanto perdurar a licença.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +705,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1141,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="12">
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SISARMAMENTO-HEFESTOS/ARTEFATOS/requisitos_funcionais.xlsx
+++ b/SISARMAMENTO-HEFESTOS/ARTEFATOS/requisitos_funcionais.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOCUMENTAÇÃO\draw.io\SISARMAMENTO-HEFESTOS\ARTEFATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD6B71-1A47-4A0C-92AB-F64B1BA0A81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC8A21-1AA9-430F-B188-829C1B799A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="195">
   <si>
     <t>Nº</t>
   </si>
@@ -616,12 +616,6 @@
     <t>De forma Emergencial, a autorização para Cautela Arma pode ser validada pelo Secretário Mauro, Coordenador da COEAP ou do diretor do GAP. Após essa validação, a solicitação contendo os itens da cautela devem ser encaminhados ao GAP para emissão da CAUTELA, atendendo dessa forma a casos excepcionais e de urgência solicitados pela Gestão.</t>
   </si>
   <si>
-    <t>Requisito de Cautela.</t>
-  </si>
-  <si>
-    <t>Autorização de Cautela pode atualmente tem como Autoridades validadoras, Coordenador da CEAP, Diretor do Gap e Supervisor do GAP, podendo ser extensível para o Secretario, dependendo da sua autorização.</t>
-  </si>
-  <si>
     <t>Requisito de Local de Estoque</t>
   </si>
   <si>
@@ -638,13 +632,20 @@
   <si>
     <t>Requisito de Cautela.
 Emitido-operador faz o cadastro, Pendente-apenas duas autoridades validaram a cautela, Autorizado- as três autoridades validaram a cautela, entregue-os itens da cautela foram entregues, Devolvido-itens da cautela devolvido, Suspenso-Cautela foi suspenso. Os itens continuam acautelados ao policial, um dos casos que será usado esse status é quando o policial entra de licença psicológico. Nesse status os itens estão reservados enquanto perdurar a licença.</t>
+  </si>
+  <si>
+    <t>Requisito de Cautela.
+Autorização de Cautela pode atualmente tem como Autoridades validadoras, Coordenador da CEAP, Diretor do Gap e Supervisor do GAP, podendo ser extensível para o Secretario, dependendo da sua autorização.</t>
+  </si>
+  <si>
+    <t> Em construção</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +689,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -697,7 +704,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -755,17 +762,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -835,32 +831,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,10 +1138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1153,7 @@
     <col min="4" max="4" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1177,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="64.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="77.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>33</v>
@@ -1318,7 +1315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -1372,7 +1369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1383,10 +1380,10 @@
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1398,7 +1395,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="77.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -1409,10 +1406,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1426,7 +1423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -1436,7 +1433,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="52.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
@@ -1464,7 +1461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="90" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
@@ -1492,7 +1489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
@@ -1506,21 +1503,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:4" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="128.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1534,7 +1531,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
@@ -1544,29 +1541,29 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+    <row r="31" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
@@ -1620,7 +1617,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
@@ -1644,7 +1641,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>107</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
@@ -1670,7 +1667,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>112</v>
       </c>
@@ -1682,7 +1679,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>114</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>117</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>122</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>127</v>
       </c>
@@ -1760,7 +1757,7 @@
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>129</v>
       </c>
@@ -1772,7 +1769,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>131</v>
       </c>
@@ -1784,7 +1781,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>133</v>
       </c>
@@ -1796,7 +1793,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
@@ -1810,8 +1807,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -1824,7 +1821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="64.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>140</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>144</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>147</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>150</v>
       </c>
@@ -1892,29 +1889,29 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+    <row r="58" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>157</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>160</v>
       </c>
@@ -1942,7 +1939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>163</v>
       </c>
@@ -1956,7 +1953,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>166</v>
       </c>
@@ -1970,7 +1967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>168</v>
       </c>
@@ -2012,7 +2009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>175</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>177</v>
       </c>
@@ -2038,7 +2035,7 @@
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>179</v>
       </c>
@@ -2067,13 +2064,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -2081,63 +2078,59 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+    <row r="72" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17" t="s">
-        <v>194</v>
+      <c r="B73" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="12">
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
+  <autoFilter ref="A1:D73" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter val="*Cautela*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="9">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>